--- a/ingreso_del_trabajo_oficial_2020.xlsx
+++ b/ingreso_del_trabajo_oficial_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_ingresos_ok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F70FFF4-0473-4858-A402-DC0EB98C483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9F70FFF4-0473-4858-A402-DC0EB98C483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3E04BC-F181-46EE-86EB-362EB764A440}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="648" windowWidth="15528" windowHeight="12312" xr2:uid="{120543F7-5C65-4B80-8790-BA042FA7BBCF}"/>
+    <workbookView xWindow="3828" yWindow="948" windowWidth="12108" windowHeight="12012" xr2:uid="{120543F7-5C65-4B80-8790-BA042FA7BBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -497,6 +497,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
